--- a/MasterTestSuite.xlsx
+++ b/MasterTestSuite.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rekha.gs.IQILTR247\.jenkins\workspace\Hybrid Automation Framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iquantiin-my.sharepoint.com/personal/rekha_gs_iquanti_com/Documents/दस्तावेज़/GitHub/Rekha.GS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E528BEAF-684A-4D7C-9ED1-D35DB27A8D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E528BEAF-684A-4D7C-9ED1-D35DB27A8D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A58556B3-4567-4869-BBC2-0F3A7E2591FB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +593,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
